--- a/sicksheet.com/input.xlsx
+++ b/sicksheet.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>url</t>
   </si>
@@ -29,12 +29,27 @@
   </si>
   <si>
     <t>document</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Ultimate Guide on How to Join Tables</t>
+  </si>
+  <si>
+    <t>ultimate-guide-on-how-to-join-tables</t>
+  </si>
+  <si>
+    <t>Ultimate Guide On How To Join Tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -87,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,13 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -407,6 +423,32 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44977.92026680322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44977.91995266286</v>
       </c>
     </row>
   </sheetData>

--- a/sicksheet.com/input.xlsx
+++ b/sicksheet.com/input.xlsx
@@ -34,7 +34,7 @@
     <t>updated</t>
   </si>
   <si>
-    <t>Ultimate Guide on How to Join Tables</t>
+    <t>ultimate guide on how to join tables</t>
   </si>
   <si>
     <t>ultimate-guide-on-how-to-join-tables</t>

--- a/sicksheet.com/input.xlsx
+++ b/sicksheet.com/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>url</t>
   </si>
@@ -30,26 +30,11 @@
   <si>
     <t>document</t>
   </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>ultimate guide on how to join tables</t>
-  </si>
-  <si>
-    <t>ultimate-guide-on-how-to-join-tables</t>
-  </si>
-  <si>
-    <t>Ultimate Guide On How To Join Tables</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -102,12 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -424,32 +408,6 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44977.92026680322</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44977.91995266286</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
